--- a/Testdata/customer.xlsx
+++ b/Testdata/customer.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Framework\Actitime\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D31F9C2-C434-4B1E-B60D-E33173F8C840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69039A1F-7016-402A-BB77-B07F3A620933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="custinfo" sheetId="1" r:id="rId1"/>
+    <sheet name="deletecust" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Customer Name</t>
   </si>
@@ -33,29 +34,92 @@
     <t>Customer Description</t>
   </si>
   <si>
-    <t>LNT info Tech</t>
-  </si>
-  <si>
-    <t>INTEL</t>
-  </si>
-  <si>
-    <t>service based company</t>
-  </si>
-  <si>
-    <t>Product based company</t>
-  </si>
-  <si>
-    <t>Goldsman Sachs</t>
+    <t>LNT info Tech1</t>
+  </si>
+  <si>
+    <t>LNT info Tech2</t>
+  </si>
+  <si>
+    <t>LNT info Tech3</t>
+  </si>
+  <si>
+    <t>LNT info Tech4</t>
+  </si>
+  <si>
+    <t>LNT info Tech5</t>
+  </si>
+  <si>
+    <t>LNT info Tech6</t>
+  </si>
+  <si>
+    <t>LNT info Tech7</t>
+  </si>
+  <si>
+    <t>LNT info Tech8</t>
+  </si>
+  <si>
+    <t>LNT info Tech9</t>
+  </si>
+  <si>
+    <t>LNT info Tech10</t>
+  </si>
+  <si>
+    <t>LNT info Tech11</t>
+  </si>
+  <si>
+    <t>LNT info Tech12</t>
+  </si>
+  <si>
+    <t>service based company1</t>
+  </si>
+  <si>
+    <t>service based company2</t>
+  </si>
+  <si>
+    <t>service based company3</t>
+  </si>
+  <si>
+    <t>service based company4</t>
+  </si>
+  <si>
+    <t>service based company5</t>
+  </si>
+  <si>
+    <t>service based company6</t>
+  </si>
+  <si>
+    <t>service based company7</t>
+  </si>
+  <si>
+    <t>service based company8</t>
+  </si>
+  <si>
+    <t>service based company9</t>
+  </si>
+  <si>
+    <t>service based company10</t>
+  </si>
+  <si>
+    <t>service based company11</t>
+  </si>
+  <si>
+    <t>service based company12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -386,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -411,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -419,44 +483,172 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7DDCC0-17E5-438E-9EF0-8E43D6157E59}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testdata/customer.xlsx
+++ b/Testdata/customer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Framework\Actitime\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69039A1F-7016-402A-BB77-B07F3A620933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83198A99-4935-4834-BCB5-48F09085201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="custinfo" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Customer Name</t>
   </si>
@@ -85,25 +85,46 @@
     <t>service based company5</t>
   </si>
   <si>
-    <t>service based company6</t>
-  </si>
-  <si>
-    <t>service based company7</t>
-  </si>
-  <si>
-    <t>service based company8</t>
-  </si>
-  <si>
-    <t>service based company9</t>
-  </si>
-  <si>
-    <t>service based company10</t>
-  </si>
-  <si>
-    <t>service based company11</t>
-  </si>
-  <si>
-    <t>service based company12</t>
+    <t>Wipro1</t>
+  </si>
+  <si>
+    <t>Wipro2</t>
+  </si>
+  <si>
+    <t>Wipro3</t>
+  </si>
+  <si>
+    <t>Wipro4</t>
+  </si>
+  <si>
+    <t>Wipro5</t>
+  </si>
+  <si>
+    <t>Wipro6</t>
+  </si>
+  <si>
+    <t>Wipro7</t>
+  </si>
+  <si>
+    <t>Wipro8</t>
+  </si>
+  <si>
+    <t>Wipro9</t>
+  </si>
+  <si>
+    <t>Wipro10</t>
+  </si>
+  <si>
+    <t>JP morgan 1</t>
+  </si>
+  <si>
+    <t>JP morgan 2</t>
+  </si>
+  <si>
+    <t>JP morgan 3</t>
+  </si>
+  <si>
+    <t>JP morgan 5</t>
   </si>
 </sst>
 </file>
@@ -139,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -162,14 +183,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,7 +505,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -480,7 +513,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -488,7 +521,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -496,7 +529,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -504,66 +537,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -574,10 +551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7DDCC0-17E5-438E-9EF0-8E43D6157E59}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -650,7 +627,58 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Testdata/customer.xlsx
+++ b/Testdata/customer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Framework\Actitime\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83198A99-4935-4834-BCB5-48F09085201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3A4342-7D91-4CDA-8B51-6375BA598965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="custinfo" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Customer Name</t>
   </si>
@@ -115,16 +115,19 @@
     <t>Wipro10</t>
   </si>
   <si>
-    <t>JP morgan 1</t>
-  </si>
-  <si>
-    <t>JP morgan 2</t>
-  </si>
-  <si>
-    <t>JP morgan 3</t>
-  </si>
-  <si>
-    <t>JP morgan 5</t>
+    <t>capegemini 1</t>
+  </si>
+  <si>
+    <t>capegemini 2</t>
+  </si>
+  <si>
+    <t>capegemini 3</t>
+  </si>
+  <si>
+    <t>capegemini 4</t>
+  </si>
+  <si>
+    <t>capegemini 5</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,7 +532,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -537,7 +540,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
